--- a/ebs_with_tracing/forms/contact/person-edit.xlsx
+++ b/ebs_with_tracing/forms/contact/person-edit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="29040" windowHeight="15840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="940">
   <si>
     <t>type</t>
   </si>
@@ -2860,9 +2860,6 @@
   </si>
   <si>
     <t>contact:person:edit</t>
-  </si>
-  <si>
-    <t>pages</t>
   </si>
   <si>
     <t>field-list</t>
@@ -3267,7 +3264,7 @@
   </sheetPr>
   <dimension ref="A1:AE84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3948,7 +3945,7 @@
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="I17" s="27"/>
       <c r="J17" s="27"/>
@@ -5684,7 +5681,7 @@
         <v>936</v>
       </c>
       <c r="H60" s="27" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="I60" s="27"/>
       <c r="J60" s="27"/>
@@ -5832,7 +5829,7 @@
         <v>935</v>
       </c>
       <c r="H64" s="27" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="I64" s="27"/>
       <c r="J64" s="27"/>
@@ -43551,8 +43548,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -43613,11 +43610,9 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-11-15 9-11</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>939</v>
-      </c>
+        <v>2020-11-15 9-18</v>
+      </c>
+      <c r="D2" s="33"/>
       <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
